--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PSSAI\JSSP-Tabu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F25ABD32-9359-4D08-95D5-6FF64FE86462}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C38348-4487-4E96-AFFC-B2F3EFE9EEE4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="1776" windowWidth="15012" windowHeight="9300" xr2:uid="{878CE90F-B6B3-4DDF-A35F-25032FD4F7CA}"/>
+    <workbookView xWindow="8364" yWindow="792" windowWidth="15012" windowHeight="9300" activeTab="1" xr2:uid="{878CE90F-B6B3-4DDF-A35F-25032FD4F7CA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pre-Frequency Based" sheetId="1" r:id="rId1"/>
+    <sheet name="FB, Random Plans" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>recency</t>
   </si>
@@ -49,6 +50,45 @@
   </si>
   <si>
     <t>sehr viel Zeit!</t>
+  </si>
+  <si>
+    <t>la26.txt</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>no improvement</t>
+  </si>
+  <si>
+    <t>tries</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>3.06</t>
+  </si>
+  <si>
+    <t>3.53</t>
+  </si>
+  <si>
+    <t>2.08</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>4.54</t>
+  </si>
+  <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>3.51</t>
   </si>
 </sst>
 </file>
@@ -72,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -80,12 +120,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -402,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADCC215-FF63-4E66-89D4-498641B39324}">
   <dimension ref="A2:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -588,4 +667,188 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC9D7F4-5A05-41BC-8E96-824A20C1C187}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="1"/>
+    <col min="7" max="7" width="11.5546875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1668</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1651</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1644</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1551</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1549</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1495</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1643</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PSSAI\JSSP-Tabu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C38348-4487-4E96-AFFC-B2F3EFE9EEE4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AE8165-D843-4BCD-8A08-6A42447CF281}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8364" yWindow="792" windowWidth="15012" windowHeight="9300" activeTab="1" xr2:uid="{878CE90F-B6B3-4DDF-A35F-25032FD4F7CA}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>recency</t>
   </si>
@@ -52,9 +52,6 @@
     <t>sehr viel Zeit!</t>
   </si>
   <si>
-    <t>la26.txt</t>
-  </si>
-  <si>
     <t>frequency</t>
   </si>
   <si>
@@ -89,6 +86,18 @@
   </si>
   <si>
     <t>3.51</t>
+  </si>
+  <si>
+    <t>la26.txt (20 x 10)</t>
+  </si>
+  <si>
+    <t>la22 (15 x 10)</t>
+  </si>
+  <si>
+    <t>1.25</t>
+  </si>
+  <si>
+    <t>2.39</t>
   </si>
 </sst>
 </file>
@@ -671,14 +680,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC9D7F4-5A05-41BC-8E96-824A20C1C187}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="6" max="6" width="11.5546875" style="1"/>
     <col min="7" max="7" width="11.5546875" style="6"/>
@@ -689,24 +699,24 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2">
         <v>5</v>
@@ -724,7 +734,7 @@
         <v>1668</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -744,7 +754,7 @@
         <v>1651</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -764,7 +774,7 @@
         <v>1644</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -784,7 +794,7 @@
         <v>1551</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -804,12 +814,12 @@
         <v>1549</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -824,12 +834,12 @@
         <v>1495</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>50</v>
@@ -844,7 +854,50 @@
         <v>1643</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1211</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1237</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PSSAI\JSSP-Tabu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AE8165-D843-4BCD-8A08-6A42447CF281}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228EB031-AB65-46D2-B750-6C1CA4CB95B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8364" yWindow="792" windowWidth="15012" windowHeight="9300" activeTab="1" xr2:uid="{878CE90F-B6B3-4DDF-A35F-25032FD4F7CA}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>recency</t>
   </si>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t>2.39</t>
+  </si>
+  <si>
+    <t>2.37</t>
+  </si>
+  <si>
+    <t>4.31</t>
+  </si>
+  <si>
+    <t>3.56</t>
+  </si>
+  <si>
+    <t>2.04</t>
   </si>
 </sst>
 </file>
@@ -680,10 +692,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC9D7F4-5A05-41BC-8E96-824A20C1C187}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -858,14 +870,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
       <c r="B9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>20</v>
@@ -874,18 +883,18 @@
         <v>5</v>
       </c>
       <c r="F9" s="1">
-        <v>1211</v>
+        <v>1510</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>20</v>
@@ -894,10 +903,93 @@
         <v>5</v>
       </c>
       <c r="F10" s="1">
+        <v>1549</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1507</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1211</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
         <v>1237</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1228</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PSSAI\JSSP-Tabu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\git\PSSAI\JSSP-Tabu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228EB031-AB65-46D2-B750-6C1CA4CB95B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D104B2-F960-45A1-9A76-80718A94129D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8364" yWindow="792" windowWidth="15012" windowHeight="9300" activeTab="1" xr2:uid="{878CE90F-B6B3-4DDF-A35F-25032FD4F7CA}"/>
+    <workbookView xWindow="-103" yWindow="343" windowWidth="22149" windowHeight="12103" activeTab="1" xr2:uid="{878CE90F-B6B3-4DDF-A35F-25032FD4F7CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-Frequency Based" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>recency</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>2.04</t>
+  </si>
+  <si>
+    <t>opt: 1218</t>
   </si>
 </sst>
 </file>
@@ -506,12 +509,12 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -522,7 +525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -539,7 +542,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>15</v>
       </c>
@@ -553,7 +556,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>10</v>
       </c>
@@ -567,7 +570,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>20</v>
       </c>
@@ -581,7 +584,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>30</v>
       </c>
@@ -595,7 +598,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>20</v>
       </c>
@@ -612,7 +615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>20</v>
       </c>
@@ -626,7 +629,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>8</v>
       </c>
@@ -640,7 +643,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -657,7 +660,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>10</v>
       </c>
@@ -671,7 +674,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>30</v>
       </c>
@@ -695,18 +698,18 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="1"/>
-    <col min="7" max="7" width="11.5546875" style="6"/>
+    <col min="1" max="1" width="23.07421875" customWidth="1"/>
+    <col min="4" max="4" width="15.3046875" customWidth="1"/>
+    <col min="6" max="6" width="11.53515625" style="1"/>
+    <col min="7" max="7" width="11.53515625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -726,7 +729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -749,7 +752,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
       <c r="B3">
         <v>10</v>
       </c>
@@ -769,7 +775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>20</v>
       </c>
@@ -789,7 +795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>20</v>
       </c>
@@ -809,7 +815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>20</v>
       </c>
@@ -829,7 +835,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>15</v>
       </c>
@@ -849,7 +855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>15</v>
       </c>
@@ -869,7 +875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>10</v>
       </c>
@@ -889,7 +895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>10</v>
       </c>
@@ -909,7 +915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>15</v>
       </c>
@@ -929,7 +935,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -952,7 +958,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B13">
         <v>15</v>
       </c>
@@ -972,7 +978,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B14">
         <v>25</v>
       </c>
